--- a/force-app/main/default/staticresources/SFDC Interview Master Sheet.xlsx
+++ b/force-app/main/default/staticresources/SFDC Interview Master Sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GG932WT\OneDrive - EY\Documents\Ameya SFDC Interview\force-app\main\default\staticresources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946CD438-AB09-4C48-A28F-57868AA5C7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC18088-A87F-403E-AB49-38B9CB79F83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8182C00-FAE3-4288-9B20-A47869568B37}"/>
   </bookViews>
   <sheets>
     <sheet name="Trigger Scenarios" sheetId="1" r:id="rId1"/>
+    <sheet name="LWC Scenarios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>No</t>
   </si>
@@ -83,6 +84,24 @@
   </si>
   <si>
     <t>https://github.com/ameyabhivgade/Ameya-SFDC-Interview/blob/117da2792f288b0fa27339938fd1c02500784ad6/force-app/main/default/triggers/ContactPhoneUpdate.trigger</t>
+  </si>
+  <si>
+    <t>Lazy Loading Example</t>
+  </si>
+  <si>
+    <t>https://github.com/ameyabhivgade/Ameya-SFDC-Interview/tree/4bc9472f6bedf3e148ae8258cbca9e1eeae2f354/force-app/main/default/lwc/lazyLoading</t>
+  </si>
+  <si>
+    <t>https://github.com/ameyabhivgade/Ameya-SFDC-Interview/tree/4bc9472f6bedf3e148ae8258cbca9e1eeae2f354/force-app/main/default/lwc/notepad</t>
+  </si>
+  <si>
+    <t>Word Count for Notepad</t>
+  </si>
+  <si>
+    <t>Character count in a String(Basic DSA)</t>
+  </si>
+  <si>
+    <t>https://github.com/ameyabhivgade/Ameya-SFDC-Interview/tree/4bc9472f6bedf3e148ae8258cbca9e1eeae2f354/force-app/main/default/lwc/charecterCount</t>
   </si>
 </sst>
 </file>
@@ -156,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +195,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,7 +562,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="79.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +580,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -569,4 +617,80 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4980E51-6C19-40F4-A0F1-1EC8B73F1DFE}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{605B44DB-F12F-434A-8F91-A3253856070D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{9C52B2B7-B176-4A7B-B141-0341D8223596}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{F8D26B37-6549-478D-AC71-B46AE8EC7480}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>